--- a/Tutorial Details.xlsx
+++ b/Tutorial Details.xlsx
@@ -14,15 +14,18 @@
   <sheets>
     <sheet name="AWS Tutorial Details" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="Data Science" sheetId="3" r:id="rId3"/>
-    <sheet name="Python" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
+    <sheet name="Free Courses" sheetId="7" r:id="rId4"/>
+    <sheet name="Data Science" sheetId="3" r:id="rId5"/>
+    <sheet name="Python" sheetId="4" r:id="rId6"/>
+    <sheet name="Oracle" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="250">
   <si>
     <t>Password</t>
   </si>
@@ -289,9 +292,6 @@
   </si>
   <si>
     <t>DaTa@Science</t>
-  </si>
-  <si>
-    <t>EFS Creation, Attach EFS to EC2 Instanse</t>
   </si>
   <si>
     <t>CLI to access AWS resources, access s3 from CLI, cloudberry explorer, use winscp to copy file from local to linux server, microsoft visual studio using IDE</t>
@@ -510,12 +510,6 @@
     <t>NACL, vpc peering</t>
   </si>
   <si>
-    <t>mssql DB launch</t>
-  </si>
-  <si>
-    <t>mysql db launch</t>
-  </si>
-  <si>
     <t>diskmgmt.msc</t>
   </si>
   <si>
@@ -598,13 +592,289 @@
   </si>
   <si>
     <t>RDS / CloudFront</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vimeo.com/379921940 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vimeo.com/380168068 </t>
+  </si>
+  <si>
+    <t>Day 35</t>
+  </si>
+  <si>
+    <t>Cloud Front</t>
+  </si>
+  <si>
+    <t>AWS@Nit</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create an IAM user with "AdministratorAccess" and try to access Billing dashboard. </t>
+  </si>
+  <si>
+    <t>Create an IAM user (user1) with "S3ReadOnly" "AdministratorAccess" and "S3FullAccess" policy and try to create an s3 bucket.</t>
+  </si>
+  <si>
+    <t>Create a Customer Managed Policy to Deny S3 and Apply to IAM user (user1) and verify the same.</t>
+  </si>
+  <si>
+    <t>Understand the IAM policy simulator for User1.</t>
+  </si>
+  <si>
+    <t>Create an IAM user with Administrator Policy and Make sure he is able to access billing dhashboard also.</t>
+  </si>
+  <si>
+    <t>Create a billing alarm where last 6 hrs bill is &gt;= 0.50$</t>
+  </si>
+  <si>
+    <t>Create an S3 bucket and observe the naming limitations.</t>
+  </si>
+  <si>
+    <t>Enable the Version and test it.</t>
+  </si>
+  <si>
+    <t>Apply Lifecycle management rule to move data from s3-standard to Delete automatically.</t>
+  </si>
+  <si>
+    <t>Perform Task 3 with Prefix option.</t>
+  </si>
+  <si>
+    <t>Read the S3 Storage classes comparison chart.</t>
+  </si>
+  <si>
+    <t>https://docs.aws.amazon.com/AmazonS3/latest/dev/optimizing-performance.html.</t>
+  </si>
+  <si>
+    <t>Read the S3 performance comparison chart.</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/s3/storage-classes/?nc=sn&amp;loc=3</t>
+  </si>
+  <si>
+    <t>Configure SRR with an S3 bucket</t>
+  </si>
+  <si>
+    <t>Create a s3 bucket policy to Deny "Put, GET, GET busket policy, Put bucket policy, Delete bucket" for an IAM User (S3FullAccess)</t>
+  </si>
+  <si>
+    <t>Create an IAM policy to Deny "Put Object" on s3 platform and apply for an IAM user (S3FullAccess) and test it</t>
+  </si>
+  <si>
+    <t>Linux Free Course</t>
+  </si>
+  <si>
+    <t>AWS videos in Youtube Channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git / Github Course </t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/gitbyavinash/</t>
+  </si>
+  <si>
+    <t>https://youtube.com/c/avinashreddyt</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/linuxwithavinash/?couponCode=AVINASHDEC</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Jenkins For Begineers</t>
+  </si>
+  <si>
+    <t>Launch a Windows Instance and install IIS and deliver the webpage.</t>
+  </si>
+  <si>
+    <t>Create a new user and give valid permissions to login to instance.</t>
+  </si>
+  <si>
+    <t>Change the Administrator's password and try to use the keypair generated password.</t>
+  </si>
+  <si>
+    <t>Give local admin rights to newly crated user.</t>
+  </si>
+  <si>
+    <t>Launch a windows instance and install iis.</t>
+  </si>
+  <si>
+    <t>Create a new NIC card in same AZs and associate with IIS Webserver.</t>
+  </si>
+  <si>
+    <t>Launch another ec2 instance, and try to access the IIS hosted website using private IP address.</t>
+  </si>
+  <si>
+    <t>AWS Cross Account access using roles.</t>
+  </si>
+  <si>
+    <t>Launch an ec2 instance using CLI.</t>
+  </si>
+  <si>
+    <t>Configure Scheduled task/cron job to replicate s3 data periodically for every 5 min.</t>
+  </si>
+  <si>
+    <t>Use WinSCP to transfer some files to our ec2 instance.</t>
+  </si>
+  <si>
+    <t>Using "Run Command" install httpd and deliver a website</t>
+  </si>
+  <si>
+    <t>Using "Run Command" install any application in windows instance</t>
+  </si>
+  <si>
+    <t>Using powershell script with SSM run command, change the timezone of windows instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Resource group using particular Tag. </t>
+  </si>
+  <si>
+    <t>Explore ec2windowsrescue tool</t>
+  </si>
+  <si>
+    <t>Create three webservers and create 3 targetgroups
+Tg1 Instanse1
+Tg2 Instanse2
+Tg3 Instanse3</t>
+  </si>
+  <si>
+    <t>Create an application ELB and configure blue/green, weighted traffic: Tg1 &amp; Tg2</t>
+  </si>
+  <si>
+    <t>Create a listner to route traffic to Tg3 coming on 8080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure you configure SG as we disccussed (In simple we should not get outputs with Instance IP addresses but should work with ELB)
+</t>
+  </si>
+  <si>
+    <t>Create an EFS and Mount to an ec2 instance and install Httpd then prepare a GoldenAMI.
+1. GoldenAMI (Apache web server, EFS is mounted)
+2. An ELB (Plain/empty ELB)
+3. Create an ASG
+ 3.1 Create a launch config (Tempate --&gt; settings)
+ 3.2 Create an ASG (Alarm)</t>
+  </si>
+  <si>
+    <t>Day 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vimeo.com/380407259 </t>
+  </si>
+  <si>
+    <t>App Services</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/379658262</t>
+  </si>
+  <si>
+    <t>!OraclE!nITHYd</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/379925768</t>
+  </si>
+  <si>
+    <t>Oracle_NIT</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/380169779</t>
+  </si>
+  <si>
+    <t>NaReSh_nIt</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/380414831 </t>
+  </si>
+  <si>
+    <r>
+      <t>!Oracle!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mssql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DB launch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> db launch</t>
+    </r>
+  </si>
+  <si>
+    <t>Unmount EFS</t>
+  </si>
+  <si>
+    <t>umount</t>
+  </si>
+  <si>
+    <t>EFS Creation, Attach EFS to EC2 Instanse, Data sync self study, Clould watch alarms</t>
+  </si>
+  <si>
+    <t>Cloud trail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cloudtrail log analyser check data dog aws mice, aws inspector, aws detective, aws config, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,6 +1040,35 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1160,7 +1459,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1205,6 +1504,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1529,9 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1691,7 +2010,7 @@
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1906,7 +2225,7 @@
         <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1952,7 +2271,7 @@
         <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1975,7 +2294,7 @@
         <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>89</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2012,16 +2331,16 @@
         <v>74</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>94</v>
-      </c>
       <c r="G22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2032,19 +2351,19 @@
         <v>43801</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="E23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="G23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2055,19 +2374,19 @@
         <v>43802</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="G24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2078,19 +2397,19 @@
         <v>43803</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="E25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" t="s">
         <v>104</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2101,16 +2420,16 @@
         <v>43804</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2121,19 +2440,19 @@
         <v>43805</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="F27" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2144,19 +2463,19 @@
         <v>43807</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2167,19 +2486,19 @@
         <v>43808</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2190,19 +2509,19 @@
         <v>43809</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="G30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2213,19 +2532,19 @@
         <v>43810</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2236,19 +2555,19 @@
         <v>43811</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2259,19 +2578,19 @@
         <v>43812</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G33" t="s">
-        <v>152</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2282,19 +2601,19 @@
         <v>43814</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2305,39 +2624,76 @@
         <v>43815</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>43816</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="1"/>
-      <c r="G35" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="F36" s="17" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="16">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>43817</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
+      <c r="D38" s="17" t="s">
+        <v>248</v>
+      </c>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
+      <c r="G38" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -2345,6 +2701,7 @@
       <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -2391,118 +2748,131 @@
     <hyperlink ref="E32" r:id="rId36"/>
     <hyperlink ref="E33" r:id="rId37"/>
     <hyperlink ref="E34" r:id="rId38"/>
+    <hyperlink ref="E35" r:id="rId39"/>
+    <hyperlink ref="E36" r:id="rId40"/>
+    <hyperlink ref="E37" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId39"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId42"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="A21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2512,6 +2882,561 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="84" customWidth="1"/>
+    <col min="4" max="4" width="59" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>7</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>8</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>9</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
+        <v>12</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>13</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>14</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>15</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>16</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>18</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>22</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>23</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>25</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>26</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>27</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>28</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>29</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>30</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
+        <v>31</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="23"/>
+    </row>
+    <row r="33" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A33" s="25">
+        <v>32</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
+        <v>33</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="25">
+        <v>34</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D35" s="23"/>
+    </row>
+    <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="25">
+        <v>35</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="23"/>
+    </row>
+    <row r="37" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="25">
+        <v>36</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="23"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D13" r:id="rId1"/>
+    <hyperlink ref="D12" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
@@ -2603,10 +3528,10 @@
         <v>80</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2641,10 +3566,10 @@
         <v>80</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2679,10 +3604,10 @@
         <v>80</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2717,10 +3642,10 @@
         <v>80</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -3281,13 +4206,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3330,13 +4253,13 @@
         <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="F2" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3350,13 +4273,13 @@
         <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3370,13 +4293,13 @@
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -3390,13 +4313,13 @@
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3709,4 +4632,432 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>43802</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43803</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>43817</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>43818</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2" display="https://vimeo.com/380414831"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId5"/>
+</worksheet>
 </file>